--- a/Config/excel/势力.xlsx
+++ b/Config/excel/势力.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bloc" sheetId="1" r:id="rId1"/>
-    <sheet name="blocColor" sheetId="2" r:id="rId2"/>
+    <sheet name="blocs" sheetId="1" r:id="rId1"/>
+    <sheet name="blocColors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>id#id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>势力id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曹操</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lord#number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>势力色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>军师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,22 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>color#number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>color#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +122,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title#string</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adviser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,45 +499,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -553,19 +542,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -576,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -599,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -628,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,24 +629,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,10 +662,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
